--- a/logisim/RISCV.xlsx
+++ b/logisim/RISCV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/ec765_cam_ac_uk/Documents/Documents/Logisim Evolution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/ec765_cam_ac_uk/Documents/Documents/Programming/C(++)/nakedriscv/logisim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1304" documentId="6_{9B9C74F9-046F-4675-B4C1-641BF0100C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB6056D-64D7-4235-A588-318F0E96486F}"/>
+  <xr:revisionPtr revIDLastSave="1324" documentId="6_{9B9C74F9-046F-4675-B4C1-641BF0100C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CF26934-726B-4FDF-B6D2-032D990FC839}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{D7D325D4-BA04-4A67-A73A-9B14C70664EC}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author>tc={A54B5EB1-7AA6-4154-BBA9-A567BCB5BA93}</author>
   </authors>
   <commentList>
-    <comment ref="X8" authorId="0" shapeId="0" xr:uid="{D4C26980-2CDF-4059-88EA-BB947E9DCD4B}">
+    <comment ref="Y8" authorId="0" shapeId="0" xr:uid="{D4C26980-2CDF-4059-88EA-BB947E9DCD4B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
     currently behaves as OP-IMM but should technically throw an error</t>
       </text>
     </comment>
-    <comment ref="X16" authorId="1" shapeId="0" xr:uid="{A54B5EB1-7AA6-4154-BBA9-A567BCB5BA93}">
+    <comment ref="Y16" authorId="1" shapeId="0" xr:uid="{A54B5EB1-7AA6-4154-BBA9-A567BCB5BA93}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="145">
   <si>
     <t>imm</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>*_data (reent)</t>
+  </si>
+  <si>
+    <t>HALT</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1018,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="X8" dT="2024-02-11T01:11:07.64" personId="{761B10AF-BFCC-49CB-9A95-30AF8B2219D0}" id="{D4C26980-2CDF-4059-88EA-BB947E9DCD4B}">
+  <threadedComment ref="Y8" dT="2024-02-11T01:11:07.64" personId="{761B10AF-BFCC-49CB-9A95-30AF8B2219D0}" id="{D4C26980-2CDF-4059-88EA-BB947E9DCD4B}">
     <text>currently behaves as OP-IMM but should technically throw an error</text>
   </threadedComment>
-  <threadedComment ref="X16" dT="2024-02-11T01:10:29.45" personId="{761B10AF-BFCC-49CB-9A95-30AF8B2219D0}" id="{A54B5EB1-7AA6-4154-BBA9-A567BCB5BA93}">
+  <threadedComment ref="Y16" dT="2024-02-11T01:10:29.45" personId="{761B10AF-BFCC-49CB-9A95-30AF8B2219D0}" id="{A54B5EB1-7AA6-4154-BBA9-A567BCB5BA93}">
     <text>should throw error</text>
   </threadedComment>
 </ThreadedComments>
@@ -1667,11 +1670,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B68274-194C-49F1-9D09-499B65F02056}">
-  <dimension ref="A1:AX250"/>
+  <dimension ref="A1:AY250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" activeCellId="1" sqref="C1:C1048576 F28"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1679,30 +1682,30 @@
     <col min="1" max="2" width="39.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
-    <col min="13" max="14" width="8.77734375" customWidth="1"/>
-    <col min="15" max="15" width="6.21875" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" customWidth="1"/>
-    <col min="18" max="18" width="4.109375" customWidth="1"/>
-    <col min="19" max="19" width="3.88671875" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" customWidth="1"/>
-    <col min="21" max="22" width="6.44140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" customWidth="1"/>
-    <col min="27" max="27" width="10.5546875" customWidth="1"/>
-    <col min="28" max="28" width="6.44140625" customWidth="1"/>
-    <col min="33" max="33" width="35" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.21875" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" customWidth="1"/>
+    <col min="18" max="18" width="6.21875" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" customWidth="1"/>
+    <col min="20" max="20" width="3.88671875" customWidth="1"/>
+    <col min="21" max="21" width="6.5546875" customWidth="1"/>
+    <col min="22" max="23" width="6.44140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5546875" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" customWidth="1"/>
+    <col min="29" max="29" width="6.44140625" customWidth="1"/>
+    <col min="34" max="34" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15" thickBot="1">
+    <row r="1" spans="1:51" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -1718,95 +1721,98 @@
       <c r="E1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="15" thickBot="1">
+    <row r="2" spans="1:51" ht="15" thickBot="1">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A8" si="0">TEXT(Y2,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(Z2,AD:AE,2,FALSE),3)&amp;" # "&amp;X2</f>
+        <f t="shared" ref="A2:A8" si="0">TEXT(Z2,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(AA2,AE:AF,2,FALSE),3)&amp;" # "&amp;Y2</f>
         <v>0000011 001 # LOAD</v>
       </c>
       <c r="B2" t="str">
-        <f>TEXT(Y2,"0000000")&amp;" "&amp;DEC2BIN(AA2,3)&amp;" # "&amp;X2</f>
+        <f>TEXT(Z2,"0000000")&amp;" "&amp;DEC2BIN(AB2,3)&amp;" # "&amp;Y2</f>
         <v>0000011 100 # LOAD</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>VLOOKUP(D2,X:Y,2,FALSE)&amp;DEC2BIN(E2,$W$2)&amp;" "&amp;_xlfn.CONCAT(F2:V2)&amp;" # "&amp;E2&amp;" "&amp;D2</f>
-        <v>0000011001 00011000010011010 # 1 LOAD</v>
+        <f>VLOOKUP(D2,Y:Z,2,FALSE)&amp;DEC2BIN(E2,$X$2)&amp;" "&amp;_xlfn.CONCAT(F2:W2)&amp;" # "&amp;E2&amp;" "&amp;D2</f>
+        <v>0000011001 000011000010011010 # 1 LOAD</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -1824,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1842,63 +1848,62 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="24">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="24">
         <v>3</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="9" t="str">
-        <f>DEC2BIN(ROW(X2)-2,5)&amp;"11"</f>
+      <c r="Z2" s="9" t="str">
+        <f>DEC2BIN(ROW(Y2)-2,5)&amp;"11"</f>
         <v>0000011</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AB2" s="10">
         <v>4</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>42</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
         <v>45</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <f t="shared" ref="AT2:AW4" si="1">_xlfn.BITLSHIFT(BIN2DEC(R6),COLUMN($V6)-COLUMN(R6))+AU2</f>
-        <v>2</v>
+      <c r="AF2">
+        <v>0</v>
       </c>
       <c r="AU2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AU2:AX4" si="1">_xlfn.BITLSHIFT(BIN2DEC(S6),COLUMN($W6)-COLUMN(S6))+AV2</f>
         <v>2</v>
       </c>
       <c r="AV2">
@@ -1910,22 +1915,26 @@
         <v>2</v>
       </c>
       <c r="AX2">
-        <f>BIN2DEC(V6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AY2">
+        <f>BIN2DEC(W6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51">
       <c r="A3" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="B3" t="e">
-        <f t="shared" ref="B3:B32" si="2">TEXT(Y3,"0000000")&amp;" "&amp;DEC2BIN(AA3,3)&amp;" # "&amp;X3</f>
+        <f t="shared" ref="B3:B32" si="2">TEXT(Z3,"0000000")&amp;" "&amp;DEC2BIN(AB3,3)&amp;" # "&amp;Y3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C33" si="3">VLOOKUP(D3,X:Y,2,FALSE)&amp;DEC2BIN(E3,$W$2)&amp;" "&amp;_xlfn.CONCAT(F3:V3)&amp;" # "&amp;E3&amp;" "&amp;D3</f>
-        <v>0000011010 00011010000011000 # 2 LOAD</v>
+        <f t="shared" ref="C3:C33" si="3">VLOOKUP(D3,Y:Z,2,FALSE)&amp;DEC2BIN(E3,$X$2)&amp;" "&amp;_xlfn.CONCAT(F3:W3)&amp;" # "&amp;E3&amp;" "&amp;D3</f>
+        <v>0000011010 000011010000011000 # 2 LOAD</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -1943,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1970,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1984,32 +1993,31 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="19" t="str">
-        <f t="shared" ref="Y3:Y32" si="4">DEC2BIN(ROW(X3)-2,5)&amp;"11"</f>
+      <c r="Z3" s="19" t="str">
+        <f t="shared" ref="Z3:Z32" si="4">DEC2BIN(ROW(Y3)-2,5)&amp;"11"</f>
         <v>0000111</v>
       </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>33</v>
       </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
         <v>46</v>
       </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="AF3">
+        <v>1</v>
       </c>
       <c r="AU3">
         <f t="shared" si="1"/>
@@ -2024,11 +2032,15 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <f>BIN2DEC(V7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <f>BIN2DEC(W7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51">
       <c r="A4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -2039,7 +2051,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0000011011 01011001101011000 # 3 LOAD</v>
+        <v>0000011011 001011001101011000 # 3 LOAD</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
@@ -2051,46 +2063,46 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2098,32 +2110,31 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="14" t="str">
+      <c r="Z4" s="14" t="str">
         <f t="shared" si="4"/>
         <v>0001011</v>
       </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>35</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>47</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2</v>
-      </c>
-      <c r="AT4">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="AU4">
         <f t="shared" si="1"/>
@@ -2138,11 +2149,15 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <f>BIN2DEC(V8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <f>BIN2DEC(W8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51">
       <c r="A5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -2151,47 +2166,47 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U5"/>
       <c r="V5"/>
-      <c r="X5" s="21" t="s">
+      <c r="W5"/>
+      <c r="Y5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Y5" s="21" t="str">
+      <c r="Z5" s="21" t="str">
         <f t="shared" si="4"/>
         <v>0001111</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>48</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3</v>
       </c>
-      <c r="AT5">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(R23),COLUMN($V23)-COLUMN(R23))+AU5</f>
+      <c r="AU5">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(S23),COLUMN($W23)-COLUMN(S23))+AV5</f>
         <v>16</v>
       </c>
-      <c r="AU5">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(S23),COLUMN($V23)-COLUMN(S23))+AV5</f>
-        <v>0</v>
-      </c>
       <c r="AV5">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(T23),COLUMN($V23)-COLUMN(T23))+AW5</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(T23),COLUMN($W23)-COLUMN(T23))+AW5</f>
         <v>0</v>
       </c>
       <c r="AW5">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(U23),COLUMN($V23)-COLUMN(U23))+AX5</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(U23),COLUMN($W23)-COLUMN(U23))+AX5</f>
         <v>0</v>
       </c>
       <c r="AX5">
-        <f>BIN2DEC(V23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(V23),COLUMN($W23)-COLUMN(V23))+AY5</f>
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <f>BIN2DEC(W23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>0010011 001 # OP-IMM</v>
@@ -2202,7 +2217,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0010011001 00010000010000010 # 1 OP-IMM</v>
+        <v>0010011001 000010000010000010 # 1 OP-IMM</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>34</v>
@@ -2220,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2238,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2256,33 +2271,32 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="9" t="str">
+      <c r="Z6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0010011</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="AA6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AB6" s="10">
         <v>3</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>49</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>4</v>
-      </c>
-      <c r="AT6" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU6</f>
-        <v>#REF!</v>
       </c>
       <c r="AU6" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV6</f>
@@ -2297,11 +2311,15 @@
         <v>#REF!</v>
       </c>
       <c r="AX6" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY6" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>0010111 100 # AUIPC</v>
@@ -2312,7 +2330,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0010011010 01010000001000000 # 2 OP-IMM</v>
+        <v>0010011010 001010000001000000 # 2 OP-IMM</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
@@ -2324,16 +2342,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2351,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2371,31 +2389,30 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="9" t="str">
+      <c r="Z7" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0010111</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="AA7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AB7" s="10">
         <v>3</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>50</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>5</v>
       </c>
-      <c r="AT7">
-        <f t="shared" ref="AT7:AW8" si="5">_xlfn.BITLSHIFT(BIN2DEC(R9),COLUMN($V9)-COLUMN(R9))+AU7</f>
-        <v>0</v>
-      </c>
       <c r="AU7">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AU7:AX8" si="5">_xlfn.BITLSHIFT(BIN2DEC(S9),COLUMN($W9)-COLUMN(S9))+AV7</f>
         <v>0</v>
       </c>
       <c r="AV7">
@@ -2407,11 +2424,15 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <f>BIN2DEC(V9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <f>BIN2DEC(W9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>0011011 001 # OP-IMM-32</v>
@@ -2420,26 +2441,22 @@
         <f t="shared" si="2"/>
         <v>0011011 011 # OP-IMM-32</v>
       </c>
-      <c r="U8"/>
       <c r="V8"/>
-      <c r="X8" s="12" t="s">
+      <c r="W8"/>
+      <c r="Y8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="12" t="str">
+      <c r="Z8" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0011011</v>
       </c>
-      <c r="Z8" s="13" t="s">
+      <c r="AA8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AB8" s="13">
         <v>3</v>
       </c>
-      <c r="AG8" s="7"/>
-      <c r="AT8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AH8" s="7"/>
       <c r="AU8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2453,18 +2470,22 @@
         <v>0</v>
       </c>
       <c r="AX8">
-        <f>BIN2DEC(V10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <f>BIN2DEC(W10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0010111001 00001000000000000 # 1 AUIPC</v>
+        <v>0010111001 000001000000000000 # 1 AUIPC</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -2485,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2523,11 +2544,10 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="AG9" s="7"/>
-      <c r="AT9" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU9</f>
-        <v>#REF!</v>
-      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7"/>
       <c r="AU9" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV9</f>
         <v>#REF!</v>
@@ -2541,13 +2561,17 @@
         <v>#REF!</v>
       </c>
       <c r="AX9" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY9" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" t="str">
-        <f t="shared" ref="A10:A16" si="6">TEXT(Y10,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(Z10,AD:AE,2,FALSE),3)&amp;" # "&amp;X10</f>
+        <f t="shared" ref="A10:A16" si="6">TEXT(Z10,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(AA10,AE:AF,2,FALSE),3)&amp;" # "&amp;Y10</f>
         <v>0100011 010 # STORE</v>
       </c>
       <c r="B10" t="str">
@@ -2556,7 +2580,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0010111010 01001000001000000 # 2 AUIPC</v>
+        <v>0010111010 001001000001000000 # 2 AUIPC</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -2568,19 +2592,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2595,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2615,26 +2639,25 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Y10" s="9" t="str">
+      <c r="Z10" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0100011</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="AA10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AB10" s="10">
         <v>4</v>
       </c>
-      <c r="AG10" s="7"/>
-      <c r="AT10">
-        <f t="shared" ref="AT10:AW11" si="7">_xlfn.BITLSHIFT(BIN2DEC(R12),COLUMN($V12)-COLUMN(R12))+AU10</f>
-        <v>2</v>
-      </c>
+      <c r="AH10" s="7"/>
       <c r="AU10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AU10:AX11" si="7">_xlfn.BITLSHIFT(BIN2DEC(S12),COLUMN($W12)-COLUMN(S12))+AV10</f>
         <v>2</v>
       </c>
       <c r="AV10">
@@ -2646,11 +2669,15 @@
         <v>2</v>
       </c>
       <c r="AX10">
-        <f>BIN2DEC(V12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AY10">
+        <f>BIN2DEC(W12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51">
       <c r="A11" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2659,22 +2686,18 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X11" s="19" t="s">
+      <c r="Y11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="19" t="str">
+      <c r="Z11" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0100111</v>
       </c>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20" t="s">
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="AG11" s="7"/>
-      <c r="AT11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="AH11" s="7"/>
       <c r="AU11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2688,11 +2711,15 @@
         <v>0</v>
       </c>
       <c r="AX11">
-        <f>BIN2DEC(V13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <f>BIN2DEC(W13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51">
       <c r="A12" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2703,7 +2730,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0011011001 00010000010000010 # 1 OP-IMM-32</v>
+        <v>0011011001 000010000010000010 # 1 OP-IMM-32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>67</v>
@@ -2721,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2739,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2757,25 +2784,24 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="X12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Y12" s="14" t="str">
+      <c r="Z12" s="14" t="str">
         <f t="shared" si="4"/>
         <v>0101011</v>
       </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="AT12" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU12</f>
-        <v>#REF!</v>
       </c>
       <c r="AU12" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV12</f>
@@ -2790,11 +2816,15 @@
         <v>#REF!</v>
       </c>
       <c r="AX12" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY12" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2805,7 +2835,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0011011010 01010000001000000 # 2 OP-IMM-32</v>
+        <v>0011011010 001010000001000000 # 2 OP-IMM-32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>67</v>
@@ -2817,16 +2847,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2844,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2864,23 +2894,22 @@
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="X13" s="21" t="s">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" s="21" t="str">
+      <c r="Z13" s="21" t="str">
         <f t="shared" si="4"/>
         <v>0101111</v>
       </c>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22" t="s">
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AT13">
-        <f t="shared" ref="AT13:AW15" si="8">_xlfn.BITLSHIFT(BIN2DEC(R19),COLUMN($V19)-COLUMN(R19))+AU13</f>
-        <v>2</v>
-      </c>
       <c r="AU13">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AU13:AX15" si="8">_xlfn.BITLSHIFT(BIN2DEC(S19),COLUMN($W19)-COLUMN(S19))+AV13</f>
         <v>2</v>
       </c>
       <c r="AV13">
@@ -2892,11 +2921,15 @@
         <v>2</v>
       </c>
       <c r="AX13">
-        <f>BIN2DEC(V19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <f>BIN2DEC(W19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51">
       <c r="A14" t="str">
         <f t="shared" si="6"/>
         <v>0110011 000 # OP</v>
@@ -2905,21 +2938,17 @@
         <f t="shared" si="2"/>
         <v>0110011 100 # OP</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="Y14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="9" t="str">
+      <c r="Z14" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0110011</v>
       </c>
-      <c r="Z14" s="10" t="s">
+      <c r="AA14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AA14" s="10">
-        <v>4</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="8"/>
+      <c r="AB14" s="10">
         <v>4</v>
       </c>
       <c r="AU14">
@@ -2932,14 +2961,18 @@
       </c>
       <c r="AW14">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX14">
-        <f>BIN2DEC(V20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <f>BIN2DEC(W20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51">
       <c r="A15" t="str">
         <f t="shared" si="6"/>
         <v>0110111 100 # LUI</v>
@@ -2950,7 +2983,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0100011001 00011000010000010 # 1 STORE</v>
+        <v>0100011001 000011000010000010 # 1 STORE</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>53</v>
@@ -2968,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2986,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3004,27 +3037,26 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="X15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y15" s="9" t="str">
+      <c r="Z15" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0110111</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AA15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
         <v>2</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
       <c r="AU15">
         <f t="shared" si="8"/>
@@ -3039,11 +3071,15 @@
         <v>0</v>
       </c>
       <c r="AX15">
-        <f>BIN2DEC(V21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <f>BIN2DEC(W21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51">
       <c r="A16" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3054,7 +3090,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0100011010 00011010010100100 # 2 STORE</v>
+        <v>0100011010 000011010010100100 # 2 STORE</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>53</v>
@@ -3072,61 +3108,60 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="X16" s="12" t="s">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Y16" s="12" t="str">
+      <c r="Z16" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0111011</v>
       </c>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13" t="s">
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="AT16" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU16</f>
-        <v>#REF!</v>
       </c>
       <c r="AU16" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV16</f>
@@ -3141,16 +3176,20 @@
         <v>#REF!</v>
       </c>
       <c r="AX16" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY16" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0100011011 01011000100000000 # 3 STORE</v>
+        <v>0100011011 001011000100000000 # 3 STORE</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>53</v>
@@ -3162,19 +3201,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3183,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3209,50 +3248,49 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="AT17">
-        <f t="shared" ref="AT17:AW18" si="9">_xlfn.BITLSHIFT(BIN2DEC(R32),COLUMN($V32)-COLUMN(R32))+AU17</f>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" ref="AU17:AX18" si="9">_xlfn.BITLSHIFT(BIN2DEC(S32),COLUMN($W32)-COLUMN(S32))+AV17</f>
         <v>8</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="AV17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="AW17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AX17">
-        <f>BIN2DEC(V32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <f>BIN2DEC(W32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51">
       <c r="A18" t="e">
-        <f t="shared" ref="A18:A24" si="10">TEXT(Y18,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(Z18,AD:AE,2,FALSE),3)&amp;" # "&amp;X18</f>
+        <f t="shared" ref="A18:A24" si="10">TEXT(Z18,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(AA18,AE:AF,2,FALSE),3)&amp;" # "&amp;Y18</f>
         <v>#N/A</v>
       </c>
       <c r="B18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X18" s="17" t="s">
+      <c r="Y18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Y18" s="18" t="str">
+      <c r="Z18" s="18" t="str">
         <f t="shared" si="4"/>
         <v>1000011</v>
       </c>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17" t="s">
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="9"/>
-        <v>8</v>
       </c>
       <c r="AU18">
         <f t="shared" si="9"/>
@@ -3260,18 +3298,22 @@
       </c>
       <c r="AV18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AX18">
-        <f>BIN2DEC(V33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <f>BIN2DEC(W33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51">
       <c r="A19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
@@ -3282,7 +3324,7 @@
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0110011001 00110000010000010 # 1 OP</v>
+        <v>0110011001 000110000010000010 # 1 OP</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>36</v>
@@ -3297,13 +3339,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3318,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3336,28 +3378,27 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="X19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Y19" s="18" t="str">
+      <c r="Z19" s="18" t="str">
         <f t="shared" si="4"/>
         <v>1000111</v>
       </c>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17" t="s">
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AT19">
-        <f t="shared" ref="AT19:AW22" si="11">_xlfn.BITLSHIFT(BIN2DEC(R28),COLUMN($V28)-COLUMN(R28))+AU19</f>
-        <v>0</v>
-      </c>
       <c r="AU19">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AU19:AX22" si="11">_xlfn.BITLSHIFT(BIN2DEC(S28),COLUMN($W28)-COLUMN(S28))+AV19</f>
         <v>0</v>
       </c>
       <c r="AV19">
@@ -3369,11 +3410,15 @@
         <v>0</v>
       </c>
       <c r="AX19">
-        <f>BIN2DEC(V28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <f>BIN2DEC(W28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51">
       <c r="A20" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
@@ -3384,7 +3429,7 @@
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0110011010 00110000010100100 # 2 OP</v>
+        <v>0110011010 000110000010100100 # 2 OP</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>36</v>
@@ -3399,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3420,43 +3465,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Y20" s="18" t="str">
+      <c r="Z20" s="18" t="str">
         <f t="shared" si="4"/>
         <v>1001011</v>
       </c>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17" t="s">
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="AT20">
-        <f t="shared" si="11"/>
-        <v>10</v>
       </c>
       <c r="AU20">
         <f t="shared" si="11"/>
@@ -3464,18 +3508,22 @@
       </c>
       <c r="AV20">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AW20">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AX20">
-        <f>BIN2DEC(V29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <f>BIN2DEC(W29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51">
       <c r="A21" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
@@ -3486,7 +3534,7 @@
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0110011011 01110000001000000 # 3 OP</v>
+        <v>0110011011 001110000001000000 # 3 OP</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>36</v>
@@ -3498,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3507,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3525,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3545,20 +3593,19 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="X21" s="18" t="s">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Y21" s="18" t="str">
+      <c r="Z21" s="18" t="str">
         <f t="shared" si="4"/>
         <v>1001111</v>
       </c>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17" t="s">
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="AT21">
-        <f t="shared" si="11"/>
-        <v>8</v>
       </c>
       <c r="AU21">
         <f t="shared" si="11"/>
@@ -3566,18 +3613,22 @@
       </c>
       <c r="AV21">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AX21">
-        <f>BIN2DEC(V30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <f>BIN2DEC(W30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51">
       <c r="A22" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
@@ -3586,20 +3637,16 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X22" s="19" t="s">
+      <c r="Y22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="19" t="str">
+      <c r="Z22" s="19" t="str">
         <f t="shared" si="4"/>
         <v>1010011</v>
       </c>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20" t="s">
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" si="11"/>
-        <v>0</v>
       </c>
       <c r="AU22">
         <f t="shared" si="11"/>
@@ -3614,11 +3661,15 @@
         <v>0</v>
       </c>
       <c r="AX22">
-        <f>BIN2DEC(V31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <f>BIN2DEC(W31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51">
       <c r="A23" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
@@ -3629,7 +3680,7 @@
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0110111001 01000000001010000 # 1 LUI</v>
+        <v>0110111001 001000000001010000 # 1 LUI</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>21</v>
@@ -3641,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3668,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3688,23 +3739,22 @@
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="X23" s="14" t="s">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Y23" s="14" t="str">
+      <c r="Z23" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1010111</v>
       </c>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15" t="s">
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AT23">
-        <f t="shared" ref="AT23:AW25" si="12">_xlfn.BITLSHIFT(BIN2DEC(R25),COLUMN($V25)-COLUMN(R25))+AU23</f>
-        <v>2</v>
-      </c>
       <c r="AU23">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AU23:AX25" si="12">_xlfn.BITLSHIFT(BIN2DEC(S25),COLUMN($W25)-COLUMN(S25))+AV23</f>
         <v>2</v>
       </c>
       <c r="AV23">
@@ -3716,11 +3766,15 @@
         <v>2</v>
       </c>
       <c r="AX23">
-        <f>BIN2DEC(V25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <f>BIN2DEC(W25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51">
       <c r="A24" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
@@ -3729,20 +3783,16 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="Y24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Y24" s="14" t="str">
+      <c r="Z24" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1011011</v>
       </c>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15" t="s">
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" si="12"/>
-        <v>4</v>
       </c>
       <c r="AU24">
         <f t="shared" si="12"/>
@@ -3754,19 +3804,23 @@
       </c>
       <c r="AW24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX24">
-        <f>BIN2DEC(V26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <f>BIN2DEC(W26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1100011001 00001000010000010 # 1 BRANCH</v>
+        <v>1100011001 000001000010000010 # 1 BRANCH</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>44</v>
@@ -3787,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3802,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3820,13 +3874,12 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W25">
         <v>0</v>
       </c>
       <c r="AU25">
@@ -3842,13 +3895,17 @@
         <v>0</v>
       </c>
       <c r="AX25">
-        <f>BIN2DEC(V27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <f>BIN2DEC(W27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51">
       <c r="A26" t="str">
-        <f t="shared" ref="A26:A32" si="13">TEXT(Y26,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(Z26,AD:AE,2,FALSE),3)&amp;" # "&amp;X26</f>
+        <f t="shared" ref="A26:A32" si="13">TEXT(Z26,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(AA26,AE:AF,2,FALSE),3)&amp;" # "&amp;Y26</f>
         <v>1100011 011 # BRANCH</v>
       </c>
       <c r="B26" t="str">
@@ -3857,7 +3914,7 @@
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1100011010 00001100010100100 # 2 BRANCH</v>
+        <v>1100011010 000001100010100100 # 2 BRANCH</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>44</v>
@@ -3878,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3893,45 +3950,44 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="X26" s="9" t="s">
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Y26" s="9" t="str">
+      <c r="Z26" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1100011</v>
       </c>
-      <c r="Z26" s="10" t="s">
+      <c r="AA26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AB26" s="10">
         <v>4</v>
-      </c>
-      <c r="AT26" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU26</f>
-        <v>#REF!</v>
       </c>
       <c r="AU26" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV26</f>
@@ -3946,11 +4002,15 @@
         <v>#REF!</v>
       </c>
       <c r="AX26" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY26</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY26" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" t="str">
         <f t="shared" si="13"/>
         <v>1100111 001 # JALR</v>
@@ -3961,7 +4021,7 @@
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1100011011 11001100000000000 # 3 BRANCH</v>
+        <v>1100011011 011001100000000000 # 3 BRANCH</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>44</v>
@@ -3970,25 +4030,25 @@
         <v>3</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -4020,41 +4080,44 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="X27" s="9" t="s">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="9" t="str">
+      <c r="Z27" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1100111</v>
       </c>
-      <c r="Z27" s="10" t="s">
+      <c r="AA27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AA27" s="10">
+      <c r="AB27" s="10">
         <v>3</v>
       </c>
-      <c r="AT27">
-        <f t="shared" ref="AT27:AW30" si="14">_xlfn.BITLSHIFT(BIN2DEC(R2),COLUMN($V2)-COLUMN(R2))+AU27</f>
+      <c r="AU27">
+        <f t="shared" ref="AU27:AX30" si="14">_xlfn.BITLSHIFT(BIN2DEC(S2),COLUMN($W2)-COLUMN(S2))+AV27</f>
         <v>26</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <f t="shared" si="14"/>
         <v>10</v>
-      </c>
-      <c r="AV27">
-        <f t="shared" si="14"/>
-        <v>2</v>
       </c>
       <c r="AW27">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AX27">
-        <f>BIN2DEC(V2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AY27">
+        <f>BIN2DEC(W2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51">
       <c r="A28" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
@@ -4063,41 +4126,41 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U28"/>
       <c r="V28"/>
-      <c r="X28" s="14" t="s">
+      <c r="W28"/>
+      <c r="Y28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Y28" s="14" t="str">
+      <c r="Z28" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1101011</v>
       </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15" t="s">
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AT28">
+      <c r="AU28">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="AU28">
+      <c r="AV28">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AV28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="AW28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX28">
-        <f>BIN2DEC(V3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <f>BIN2DEC(W3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51">
       <c r="A29" t="str">
         <f t="shared" si="13"/>
         <v>1101111 101 # JAL</v>
@@ -4108,7 +4171,7 @@
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1100111001 00010000010001010 # 1 JALR</v>
+        <v>1100111001 000010000010001010 # 1 JALR</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>41</v>
@@ -4126,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -4144,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4156,63 +4219,66 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="X29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y29" s="9" t="str">
+      <c r="Z29" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1101111</v>
       </c>
-      <c r="Z29" s="10" t="s">
+      <c r="AA29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AB29" s="10">
         <v>3</v>
       </c>
-      <c r="AT29">
+      <c r="AU29">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="AU29">
+      <c r="AV29">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AV29">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="AW29">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX29">
-        <f>BIN2DEC(V4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <f>BIN2DEC(W4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51">
       <c r="A30" t="str">
         <f t="shared" si="13"/>
         <v>1110011 001 # SYSTEM</v>
       </c>
       <c r="B30" t="str">
-        <f>TEXT(Y30,"0000000")&amp;" "&amp;DEC2BIN(AA30,3)&amp;" # "&amp;X30</f>
+        <f>TEXT(Z30,"0000000")&amp;" "&amp;DEC2BIN(AB30,3)&amp;" # "&amp;Y30</f>
         <v>1110011 001 # SYSTEM</v>
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1100111010 11010000001001000 # 2 JALR</v>
+        <v>1100111010 011010000001001000 # 2 JALR</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>41</v>
@@ -4221,19 +4287,19 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -4251,19 +4317,19 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -4271,22 +4337,21 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="X30" s="9" t="s">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Y30" s="9" t="str">
+      <c r="Z30" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1110011</v>
       </c>
-      <c r="Z30" s="10" t="s">
+      <c r="AA30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AA30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="AB30" s="10">
+        <v>1</v>
       </c>
       <c r="AU30">
         <f t="shared" si="14"/>
@@ -4301,11 +4366,15 @@
         <v>0</v>
       </c>
       <c r="AX30">
-        <f>BIN2DEC(V5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <f>BIN2DEC(W5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51">
       <c r="A31" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
@@ -4314,25 +4383,21 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U31"/>
       <c r="V31"/>
-      <c r="X31" s="14" t="s">
+      <c r="W31"/>
+      <c r="Y31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Y31" s="14" t="str">
+      <c r="Z31" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1110111</v>
       </c>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15" t="s">
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AT31">
-        <f t="shared" ref="AT31:AW33" si="15">_xlfn.BITLSHIFT(BIN2DEC(R15),COLUMN($V15)-COLUMN(R15))+AU31</f>
-        <v>2</v>
-      </c>
       <c r="AU31">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AU31:AX33" si="15">_xlfn.BITLSHIFT(BIN2DEC(S15),COLUMN($W15)-COLUMN(S15))+AV31</f>
         <v>2</v>
       </c>
       <c r="AV31">
@@ -4344,11 +4409,15 @@
         <v>2</v>
       </c>
       <c r="AX31">
-        <f>BIN2DEC(V15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <f>BIN2DEC(W15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51">
       <c r="A32" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
@@ -4359,7 +4428,7 @@
       </c>
       <c r="C32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1101111001 00001000000001000 # 1 JAL</v>
+        <v>1101111001 000001000000001000 # 1 JAL</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>37</v>
@@ -4380,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4407,10 +4476,10 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -4418,20 +4487,19 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="X32" s="14" t="s">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Y32" s="14" t="str">
+      <c r="Z32" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1111011</v>
       </c>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15" t="s">
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="AT32">
-        <f t="shared" si="15"/>
-        <v>4</v>
       </c>
       <c r="AU32">
         <f t="shared" si="15"/>
@@ -4443,25 +4511,29 @@
       </c>
       <c r="AW32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX32">
-        <f>BIN2DEC(V16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <f>BIN2DEC(W16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51">
       <c r="A33" s="4" t="e">
-        <f>TEXT(Y34,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(Z34,AD:AE,2,FALSE),3)&amp;" # "&amp;X34</f>
+        <f>TEXT(Z34,"0000000")&amp;" "&amp;DEC2BIN(VLOOKUP(AA34,AE:AF,2,FALSE),3)&amp;" # "&amp;Y34</f>
         <v>#N/A</v>
       </c>
       <c r="B33" t="str">
-        <f>TEXT(Y34,"0000000")&amp;" "&amp;DEC2BIN(AA34,3)&amp;" # "&amp;X34</f>
+        <f>TEXT(Z34,"0000000")&amp;" "&amp;DEC2BIN(AB34,3)&amp;" # "&amp;Y34</f>
         <v>xxxxxxx 111 # INSTR</v>
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1101111010 11001000001001000 # 2 JAL</v>
+        <v>1101111010 011001000001001000 # 2 JAL</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>37</v>
@@ -4470,22 +4542,22 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4500,19 +4572,19 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -4520,8 +4592,7 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="AT33">
-        <f t="shared" si="15"/>
+      <c r="W33">
         <v>0</v>
       </c>
       <c r="AU33">
@@ -4537,57 +4608,61 @@
         <v>0</v>
       </c>
       <c r="AX33">
-        <f>BIN2DEC(V17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50">
-      <c r="X34" s="9" t="s">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <f>BIN2DEC(W17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51">
+      <c r="Y34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y34" s="9" t="s">
+      <c r="Z34" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10">
-        <f>2^$W$2-1</f>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10">
+        <f>2^$X$2-1</f>
         <v>7</v>
       </c>
-      <c r="AT34">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(R38),COLUMN($V38)-COLUMN(R38))+AU34</f>
-        <v>0</v>
-      </c>
       <c r="AU34">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(S38),COLUMN($V38)-COLUMN(S38))+AV34</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(S38),COLUMN($W38)-COLUMN(S38))+AV34</f>
         <v>0</v>
       </c>
       <c r="AV34">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(T38),COLUMN($V38)-COLUMN(T38))+AW34</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(T38),COLUMN($W38)-COLUMN(T38))+AW34</f>
         <v>0</v>
       </c>
       <c r="AW34">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(U38),COLUMN($V38)-COLUMN(U38))+AX34</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(U38),COLUMN($W38)-COLUMN(U38))+AX34</f>
         <v>0</v>
       </c>
       <c r="AX34">
-        <f>BIN2DEC(V38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(V38),COLUMN($W38)-COLUMN(V38))+AY34</f>
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <f>BIN2DEC(W38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51">
       <c r="C35" s="4" t="str">
-        <f>VLOOKUP(D35,X:Y,2,FALSE)&amp;E35&amp;" "&amp;_xlfn.CONCAT(F35:V35)&amp;" # "&amp;E35&amp;" "&amp;D35</f>
-        <v>1110011xxx 00000000000000000 # xxx SYSTEM</v>
+        <f>VLOOKUP(D35,Y:Z,2,FALSE)&amp;E35&amp;" "&amp;_xlfn.CONCAT(F35:W35)&amp;" # "&amp;E35&amp;" "&amp;D35</f>
+        <v>1110011xxx 100000000000000000 # xxx SYSTEM</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E35" t="str">
-        <f>REPT("x",$W$2)</f>
+        <f>REPT("x",$X$2)</f>
         <v>xxx</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4637,53 +4712,56 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="AT35">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(R37),COLUMN($V37)-COLUMN(R37))+AU35</f>
-        <v>1</v>
+      <c r="W35">
+        <v>0</v>
       </c>
       <c r="AU35">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(S37),COLUMN($V37)-COLUMN(S37))+AV35</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(S37),COLUMN($W37)-COLUMN(S37))+AV35</f>
         <v>1</v>
       </c>
       <c r="AV35">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(T37),COLUMN($V37)-COLUMN(T37))+AW35</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(T37),COLUMN($W37)-COLUMN(T37))+AW35</f>
         <v>1</v>
       </c>
       <c r="AW35">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(U37),COLUMN($V37)-COLUMN(U37))+AX35</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(U37),COLUMN($W37)-COLUMN(U37))+AX35</f>
         <v>1</v>
       </c>
       <c r="AX35">
-        <f>BIN2DEC(V37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:50">
-      <c r="AT36">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(R35),COLUMN($V35)-COLUMN(R35))+AU36</f>
-        <v>0</v>
-      </c>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(V37),COLUMN($W37)-COLUMN(V37))+AY35</f>
+        <v>1</v>
+      </c>
+      <c r="AY35">
+        <f>BIN2DEC(W37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51">
       <c r="AU36">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(S35),COLUMN($V35)-COLUMN(S35))+AV36</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(S35),COLUMN($W35)-COLUMN(S35))+AV36</f>
         <v>0</v>
       </c>
       <c r="AV36">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(T35),COLUMN($V35)-COLUMN(T35))+AW36</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(T35),COLUMN($W35)-COLUMN(T35))+AW36</f>
         <v>0</v>
       </c>
       <c r="AW36">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(U35),COLUMN($V35)-COLUMN(U35))+AX36</f>
+        <f>_xlfn.BITLSHIFT(BIN2DEC(U35),COLUMN($W35)-COLUMN(U35))+AX36</f>
         <v>0</v>
       </c>
       <c r="AX36">
-        <f>BIN2DEC(V35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:50">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(V35),COLUMN($W35)-COLUMN(V35))+AY36</f>
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <f>BIN2DEC(W35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51">
       <c r="C37" s="4" t="str">
-        <f t="shared" ref="C37" si="16">VLOOKUP(D37,X:Y,2,FALSE)&amp;DEC2BIN(E37,$W$2)&amp;" "&amp;_xlfn.CONCAT(F37:V37)&amp;" # "&amp;E37&amp;" "&amp;D37</f>
-        <v>xxxxxxx000 00000001100000001 # 0 INSTR</v>
+        <f t="shared" ref="C37" si="16">VLOOKUP(D37,Y:Z,2,FALSE)&amp;DEC2BIN(E37,$X$2)&amp;" "&amp;_xlfn.CONCAT(F37:W37)&amp;" # "&amp;E37&amp;" "&amp;D37</f>
+        <v>xxxxxxx000 000000001100000001 # 0 INSTR</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
@@ -4713,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -4740,11 +4818,10 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="AT37" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU37</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
       </c>
       <c r="AU37" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV37</f>
@@ -4759,17 +4836,17 @@
         <v>#REF!</v>
       </c>
       <c r="AX37" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY37" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
-      <c r="U38"/>
+    <row r="38" spans="1:51">
       <c r="V38"/>
-      <c r="AT38" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU38</f>
-        <v>#REF!</v>
-      </c>
+      <c r="W38"/>
       <c r="AU38" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV38</f>
         <v>#REF!</v>
@@ -4783,15 +4860,15 @@
         <v>#REF!</v>
       </c>
       <c r="AX38" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY38</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY38" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
-      <c r="AT39" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU39</f>
-        <v>#REF!</v>
-      </c>
+    <row r="39" spans="1:51">
       <c r="AU39" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV39</f>
         <v>#REF!</v>
@@ -4805,15 +4882,15 @@
         <v>#REF!</v>
       </c>
       <c r="AX39" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY39" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
-      <c r="AT40" t="e">
-        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AU40</f>
-        <v>#REF!</v>
-      </c>
+    <row r="40" spans="1:51">
       <c r="AU40" t="e">
         <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AV40</f>
         <v>#REF!</v>
@@ -4827,4651 +4904,4655 @@
         <v>#REF!</v>
       </c>
       <c r="AX40" t="e">
+        <f>_xlfn.BITLSHIFT(BIN2DEC(#REF!),COLUMN(#REF!)-COLUMN(#REF!))+AY40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY40" t="e">
         <f>BIN2DEC(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
-      <c r="U41"/>
+    <row r="41" spans="1:51">
       <c r="V41"/>
-      <c r="AT41">
-        <f t="shared" ref="AT41:AT81" si="17">_xlfn.BITLSHIFT(BIN2DEC(R41),COLUMN($V41)-COLUMN(R41))+AU41</f>
-        <v>0</v>
-      </c>
+      <c r="W41"/>
       <c r="AU41">
-        <f t="shared" ref="AU41:AU81" si="18">_xlfn.BITLSHIFT(BIN2DEC(S41),COLUMN($V41)-COLUMN(S41))+AV41</f>
+        <f t="shared" ref="AU41:AU81" si="17">_xlfn.BITLSHIFT(BIN2DEC(S41),COLUMN($W41)-COLUMN(S41))+AV41</f>
         <v>0</v>
       </c>
       <c r="AV41">
-        <f t="shared" ref="AV41:AV81" si="19">_xlfn.BITLSHIFT(BIN2DEC(T41),COLUMN($V41)-COLUMN(T41))+AW41</f>
+        <f t="shared" ref="AV41:AV81" si="18">_xlfn.BITLSHIFT(BIN2DEC(T41),COLUMN($W41)-COLUMN(T41))+AW41</f>
         <v>0</v>
       </c>
       <c r="AW41">
-        <f t="shared" ref="AW41:AW66" si="20">_xlfn.BITLSHIFT(BIN2DEC(U41),COLUMN($V41)-COLUMN(U41))+AX41</f>
+        <f t="shared" ref="AW41:AW81" si="19">_xlfn.BITLSHIFT(BIN2DEC(U41),COLUMN($W41)-COLUMN(U41))+AX41</f>
         <v>0</v>
       </c>
       <c r="AX41">
-        <f t="shared" ref="AX41:AX96" si="21">BIN2DEC(V41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50">
-      <c r="U42"/>
+        <f t="shared" ref="AX41:AX66" si="20">_xlfn.BITLSHIFT(BIN2DEC(V41),COLUMN($W41)-COLUMN(V41))+AY41</f>
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <f t="shared" ref="AY41:AY96" si="21">BIN2DEC(W41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51">
       <c r="V42"/>
-      <c r="AT42">
+      <c r="W42"/>
+      <c r="AU42">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU42">
+      <c r="AV42">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV42">
+      <c r="AW42">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW42">
+      <c r="AX42">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX42">
+      <c r="AY42">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
-      <c r="U43"/>
+    <row r="43" spans="1:51">
       <c r="V43"/>
-      <c r="AT43">
+      <c r="W43"/>
+      <c r="AU43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU43">
+      <c r="AV43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV43">
+      <c r="AW43">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW43">
+      <c r="AX43">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX43">
+      <c r="AY43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
-      <c r="U44"/>
+    <row r="44" spans="1:51">
       <c r="V44"/>
-      <c r="AT44">
+      <c r="W44"/>
+      <c r="AU44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU44">
+      <c r="AV44">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV44">
+      <c r="AW44">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW44">
+      <c r="AX44">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX44">
+      <c r="AY44">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
-      <c r="U45"/>
+    <row r="45" spans="1:51">
       <c r="V45"/>
-      <c r="AT45">
+      <c r="W45"/>
+      <c r="AU45">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU45">
+      <c r="AV45">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV45">
+      <c r="AW45">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW45">
+      <c r="AX45">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX45">
+      <c r="AY45">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
-      <c r="U46"/>
+    <row r="46" spans="1:51">
       <c r="V46"/>
-      <c r="AT46">
+      <c r="W46"/>
+      <c r="AU46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU46">
+      <c r="AV46">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV46">
+      <c r="AW46">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW46">
+      <c r="AX46">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX46">
+      <c r="AY46">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:50">
-      <c r="U47"/>
+    <row r="47" spans="1:51">
       <c r="V47"/>
-      <c r="AT47">
+      <c r="W47"/>
+      <c r="AU47">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU47">
+      <c r="AV47">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV47">
+      <c r="AW47">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW47">
+      <c r="AX47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX47">
+      <c r="AY47">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:50">
-      <c r="U48"/>
+    <row r="48" spans="1:51">
       <c r="V48"/>
-      <c r="AT48">
+      <c r="W48"/>
+      <c r="AU48">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU48">
+      <c r="AV48">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV48">
+      <c r="AW48">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW48">
+      <c r="AX48">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX48">
+      <c r="AY48">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="46:50">
-      <c r="AT49">
+    <row r="49" spans="47:51">
+      <c r="AU49">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU49">
+      <c r="AV49">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV49">
+      <c r="AW49">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW49">
+      <c r="AX49">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX49">
+      <c r="AY49">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="46:50">
-      <c r="AT50">
+    <row r="50" spans="47:51">
+      <c r="AU50">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU50">
+      <c r="AV50">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV50">
+      <c r="AW50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW50">
+      <c r="AX50">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX50">
+      <c r="AY50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="46:50">
-      <c r="AT51">
+    <row r="51" spans="47:51">
+      <c r="AU51">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU51">
+      <c r="AV51">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV51">
+      <c r="AW51">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW51">
+      <c r="AX51">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX51">
+      <c r="AY51">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="46:50">
-      <c r="AT52">
+    <row r="52" spans="47:51">
+      <c r="AU52">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU52">
+      <c r="AV52">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV52">
+      <c r="AW52">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW52">
+      <c r="AX52">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX52">
+      <c r="AY52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="46:50">
-      <c r="AT53">
+    <row r="53" spans="47:51">
+      <c r="AU53">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU53">
+      <c r="AV53">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV53">
+      <c r="AW53">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW53">
+      <c r="AX53">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX53">
+      <c r="AY53">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="46:50">
-      <c r="AT54">
+    <row r="54" spans="47:51">
+      <c r="AU54">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU54">
+      <c r="AV54">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV54">
+      <c r="AW54">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW54">
+      <c r="AX54">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX54">
+      <c r="AY54">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="46:50">
-      <c r="AT55">
+    <row r="55" spans="47:51">
+      <c r="AU55">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU55">
+      <c r="AV55">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV55">
+      <c r="AW55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW55">
+      <c r="AX55">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX55">
+      <c r="AY55">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="46:50">
-      <c r="AT56">
+    <row r="56" spans="47:51">
+      <c r="AU56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU56">
+      <c r="AV56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV56">
+      <c r="AW56">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW56">
+      <c r="AX56">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX56">
+      <c r="AY56">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="46:50">
-      <c r="AT57">
+    <row r="57" spans="47:51">
+      <c r="AU57">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU57">
+      <c r="AV57">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV57">
+      <c r="AW57">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW57">
+      <c r="AX57">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX57">
+      <c r="AY57">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="46:50">
-      <c r="AT58">
+    <row r="58" spans="47:51">
+      <c r="AU58">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU58">
+      <c r="AV58">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV58">
+      <c r="AW58">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW58">
+      <c r="AX58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX58">
+      <c r="AY58">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="46:50">
-      <c r="AT59">
+    <row r="59" spans="47:51">
+      <c r="AU59">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU59">
+      <c r="AV59">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV59">
+      <c r="AW59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW59">
+      <c r="AX59">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX59">
+      <c r="AY59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="46:50">
-      <c r="AT60">
+    <row r="60" spans="47:51">
+      <c r="AU60">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU60">
+      <c r="AV60">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV60">
+      <c r="AW60">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW60">
+      <c r="AX60">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX60">
+      <c r="AY60">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="46:50">
-      <c r="AT61">
+    <row r="61" spans="47:51">
+      <c r="AU61">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU61">
+      <c r="AV61">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV61">
+      <c r="AW61">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW61">
+      <c r="AX61">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX61">
+      <c r="AY61">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="46:50">
-      <c r="AT62">
+    <row r="62" spans="47:51">
+      <c r="AU62">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU62">
+      <c r="AV62">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV62">
+      <c r="AW62">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW62">
+      <c r="AX62">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX62">
+      <c r="AY62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="46:50">
-      <c r="AT63">
+    <row r="63" spans="47:51">
+      <c r="AU63">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU63">
+      <c r="AV63">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV63">
+      <c r="AW63">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW63">
+      <c r="AX63">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX63">
+      <c r="AY63">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="46:50">
-      <c r="AT64">
+    <row r="64" spans="47:51">
+      <c r="AU64">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU64">
+      <c r="AV64">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV64">
+      <c r="AW64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW64">
+      <c r="AX64">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX64">
+      <c r="AY64">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="46:50">
-      <c r="AT65">
+    <row r="65" spans="47:51">
+      <c r="AU65">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU65">
+      <c r="AV65">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV65">
+      <c r="AW65">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW65">
+      <c r="AX65">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX65">
+      <c r="AY65">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="46:50">
-      <c r="AT66">
+    <row r="66" spans="47:51">
+      <c r="AU66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU66">
+      <c r="AV66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV66">
+      <c r="AW66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW66">
+      <c r="AX66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AX66">
+      <c r="AY66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="46:50">
-      <c r="AT67">
+    <row r="67" spans="47:51">
+      <c r="AU67">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU67">
+      <c r="AV67">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV67">
+      <c r="AW67">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW67">
-        <f t="shared" ref="AW67:AW130" si="22">_xlfn.BITLSHIFT(BIN2DEC(U67),COLUMN($V67)-COLUMN(U67))+AX67</f>
-        <v>0</v>
-      </c>
       <c r="AX67">
+        <f t="shared" ref="AX67:AX130" si="22">_xlfn.BITLSHIFT(BIN2DEC(V67),COLUMN($W67)-COLUMN(V67))+AY67</f>
+        <v>0</v>
+      </c>
+      <c r="AY67">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="46:50">
-      <c r="AT68">
+    <row r="68" spans="47:51">
+      <c r="AU68">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU68">
+      <c r="AV68">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV68">
+      <c r="AW68">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW68">
+      <c r="AX68">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX68">
+      <c r="AY68">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="46:50">
-      <c r="AT69">
+    <row r="69" spans="47:51">
+      <c r="AU69">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU69">
+      <c r="AV69">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV69">
+      <c r="AW69">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW69">
+      <c r="AX69">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX69">
+      <c r="AY69">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="46:50">
-      <c r="AT70">
+    <row r="70" spans="47:51">
+      <c r="AU70">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU70">
+      <c r="AV70">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV70">
+      <c r="AW70">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW70">
+      <c r="AX70">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX70">
+      <c r="AY70">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="46:50">
-      <c r="AT71">
+    <row r="71" spans="47:51">
+      <c r="AU71">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU71">
+      <c r="AV71">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV71">
+      <c r="AW71">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW71">
+      <c r="AX71">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX71">
+      <c r="AY71">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="46:50">
-      <c r="AT72">
+    <row r="72" spans="47:51">
+      <c r="AU72">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU72">
+      <c r="AV72">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV72">
+      <c r="AW72">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW72">
+      <c r="AX72">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX72">
+      <c r="AY72">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="46:50">
-      <c r="AT73">
+    <row r="73" spans="47:51">
+      <c r="AU73">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU73">
+      <c r="AV73">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV73">
+      <c r="AW73">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW73">
+      <c r="AX73">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX73">
+      <c r="AY73">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="46:50">
-      <c r="AT74">
+    <row r="74" spans="47:51">
+      <c r="AU74">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU74">
+      <c r="AV74">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV74">
+      <c r="AW74">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW74">
+      <c r="AX74">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX74">
+      <c r="AY74">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="46:50">
-      <c r="AT75">
+    <row r="75" spans="47:51">
+      <c r="AU75">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU75">
+      <c r="AV75">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV75">
+      <c r="AW75">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW75">
+      <c r="AX75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX75">
+      <c r="AY75">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="46:50">
-      <c r="AT76">
+    <row r="76" spans="47:51">
+      <c r="AU76">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU76">
+      <c r="AV76">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV76">
+      <c r="AW76">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW76">
+      <c r="AX76">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX76">
+      <c r="AY76">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="46:50">
-      <c r="AT77">
+    <row r="77" spans="47:51">
+      <c r="AU77">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU77">
+      <c r="AV77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV77">
+      <c r="AW77">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW77">
+      <c r="AX77">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX77">
+      <c r="AY77">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="46:50">
-      <c r="AT78">
+    <row r="78" spans="47:51">
+      <c r="AU78">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU78">
+      <c r="AV78">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV78">
+      <c r="AW78">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW78">
+      <c r="AX78">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX78">
+      <c r="AY78">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="46:50">
-      <c r="AT79">
+    <row r="79" spans="47:51">
+      <c r="AU79">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU79">
+      <c r="AV79">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV79">
+      <c r="AW79">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW79">
+      <c r="AX79">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX79">
+      <c r="AY79">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="46:50">
-      <c r="AT80">
+    <row r="80" spans="47:51">
+      <c r="AU80">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU80">
+      <c r="AV80">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV80">
+      <c r="AW80">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW80">
+      <c r="AX80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX80">
+      <c r="AY80">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="46:50">
-      <c r="AT81">
+    <row r="81" spans="47:51">
+      <c r="AU81">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU81">
+      <c r="AV81">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV81">
+      <c r="AW81">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW81">
+      <c r="AX81">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX81">
+      <c r="AY81">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="46:50">
-      <c r="AT82">
-        <f t="shared" ref="AT82:AT145" si="23">_xlfn.BITLSHIFT(BIN2DEC(R82),COLUMN($V82)-COLUMN(R82))+AU82</f>
-        <v>0</v>
-      </c>
+    <row r="82" spans="47:51">
       <c r="AU82">
-        <f t="shared" ref="AU82:AU145" si="24">_xlfn.BITLSHIFT(BIN2DEC(S82),COLUMN($V82)-COLUMN(S82))+AV82</f>
+        <f t="shared" ref="AU82:AU145" si="23">_xlfn.BITLSHIFT(BIN2DEC(S82),COLUMN($W82)-COLUMN(S82))+AV82</f>
         <v>0</v>
       </c>
       <c r="AV82">
-        <f t="shared" ref="AV82:AV145" si="25">_xlfn.BITLSHIFT(BIN2DEC(T82),COLUMN($V82)-COLUMN(T82))+AW82</f>
+        <f t="shared" ref="AV82:AV145" si="24">_xlfn.BITLSHIFT(BIN2DEC(T82),COLUMN($W82)-COLUMN(T82))+AW82</f>
         <v>0</v>
       </c>
       <c r="AW82">
+        <f t="shared" ref="AW82:AW145" si="25">_xlfn.BITLSHIFT(BIN2DEC(U82),COLUMN($W82)-COLUMN(U82))+AX82</f>
+        <v>0</v>
+      </c>
+      <c r="AX82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX82">
+      <c r="AY82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="46:50">
-      <c r="AT83">
+    <row r="83" spans="47:51">
+      <c r="AU83">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU83">
+      <c r="AV83">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV83">
+      <c r="AW83">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW83">
+      <c r="AX83">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX83">
+      <c r="AY83">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="46:50">
-      <c r="AT84">
+    <row r="84" spans="47:51">
+      <c r="AU84">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU84">
+      <c r="AV84">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV84">
+      <c r="AW84">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW84">
+      <c r="AX84">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX84">
+      <c r="AY84">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="46:50">
-      <c r="AT85">
+    <row r="85" spans="47:51">
+      <c r="AU85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU85">
+      <c r="AV85">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV85">
+      <c r="AW85">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW85">
+      <c r="AX85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX85">
+      <c r="AY85">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="46:50">
-      <c r="AT86">
+    <row r="86" spans="47:51">
+      <c r="AU86">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU86">
+      <c r="AV86">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV86">
+      <c r="AW86">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW86">
+      <c r="AX86">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX86">
+      <c r="AY86">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="46:50">
-      <c r="AT87">
+    <row r="87" spans="47:51">
+      <c r="AU87">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU87">
+      <c r="AV87">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV87">
+      <c r="AW87">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW87">
+      <c r="AX87">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX87">
+      <c r="AY87">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="46:50">
-      <c r="AT88">
+    <row r="88" spans="47:51">
+      <c r="AU88">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU88">
+      <c r="AV88">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV88">
+      <c r="AW88">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW88">
+      <c r="AX88">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX88">
+      <c r="AY88">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="46:50">
-      <c r="AT89">
+    <row r="89" spans="47:51">
+      <c r="AU89">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU89">
+      <c r="AV89">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV89">
+      <c r="AW89">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW89">
+      <c r="AX89">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX89">
+      <c r="AY89">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="46:50">
-      <c r="AT90">
+    <row r="90" spans="47:51">
+      <c r="AU90">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU90">
+      <c r="AV90">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV90">
+      <c r="AW90">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW90">
+      <c r="AX90">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX90">
+      <c r="AY90">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="46:50">
-      <c r="AT91">
+    <row r="91" spans="47:51">
+      <c r="AU91">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU91">
+      <c r="AV91">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV91">
+      <c r="AW91">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW91">
+      <c r="AX91">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX91">
+      <c r="AY91">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="46:50">
-      <c r="AT92">
+    <row r="92" spans="47:51">
+      <c r="AU92">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU92">
+      <c r="AV92">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV92">
+      <c r="AW92">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW92">
+      <c r="AX92">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX92">
+      <c r="AY92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="46:50">
-      <c r="AT93">
+    <row r="93" spans="47:51">
+      <c r="AU93">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU93">
+      <c r="AV93">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV93">
+      <c r="AW93">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW93">
+      <c r="AX93">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX93">
+      <c r="AY93">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="46:50">
-      <c r="AT94">
+    <row r="94" spans="47:51">
+      <c r="AU94">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU94">
+      <c r="AV94">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV94">
+      <c r="AW94">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW94">
+      <c r="AX94">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX94">
+      <c r="AY94">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="46:50">
-      <c r="AT95">
+    <row r="95" spans="47:51">
+      <c r="AU95">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU95">
+      <c r="AV95">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV95">
+      <c r="AW95">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW95">
+      <c r="AX95">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX95">
+      <c r="AY95">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="46:50">
-      <c r="AT96">
+    <row r="96" spans="47:51">
+      <c r="AU96">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU96">
+      <c r="AV96">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV96">
+      <c r="AW96">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW96">
+      <c r="AX96">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX96">
+      <c r="AY96">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="46:50">
-      <c r="AT97">
+    <row r="97" spans="47:51">
+      <c r="AU97">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU97">
+      <c r="AV97">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV97">
+      <c r="AW97">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW97">
+      <c r="AX97">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX97">
-        <f t="shared" ref="AX97:AX160" si="26">BIN2DEC(V97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="46:50">
-      <c r="AT98">
+      <c r="AY97">
+        <f t="shared" ref="AY97:AY160" si="26">BIN2DEC(W97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="47:51">
+      <c r="AU98">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU98">
+      <c r="AV98">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV98">
+      <c r="AW98">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW98">
+      <c r="AX98">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX98">
+      <c r="AY98">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="46:50">
-      <c r="AT99">
+    <row r="99" spans="47:51">
+      <c r="AU99">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU99">
+      <c r="AV99">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV99">
+      <c r="AW99">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW99">
+      <c r="AX99">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX99">
+      <c r="AY99">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="46:50">
-      <c r="AT100">
+    <row r="100" spans="47:51">
+      <c r="AU100">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU100">
+      <c r="AV100">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV100">
+      <c r="AW100">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW100">
+      <c r="AX100">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX100">
+      <c r="AY100">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="46:50">
-      <c r="AT101">
+    <row r="101" spans="47:51">
+      <c r="AU101">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU101">
+      <c r="AV101">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV101">
+      <c r="AW101">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW101">
+      <c r="AX101">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX101">
+      <c r="AY101">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="46:50">
-      <c r="AT102">
+    <row r="102" spans="47:51">
+      <c r="AU102">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU102">
+      <c r="AV102">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV102">
+      <c r="AW102">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW102">
+      <c r="AX102">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX102">
+      <c r="AY102">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="46:50">
-      <c r="AT103">
+    <row r="103" spans="47:51">
+      <c r="AU103">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU103">
+      <c r="AV103">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV103">
+      <c r="AW103">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW103">
+      <c r="AX103">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX103">
+      <c r="AY103">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="46:50">
-      <c r="AT104">
+    <row r="104" spans="47:51">
+      <c r="AU104">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU104">
+      <c r="AV104">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV104">
+      <c r="AW104">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW104">
+      <c r="AX104">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX104">
+      <c r="AY104">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="46:50">
-      <c r="AT105">
+    <row r="105" spans="47:51">
+      <c r="AU105">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU105">
+      <c r="AV105">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV105">
+      <c r="AW105">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW105">
+      <c r="AX105">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX105">
+      <c r="AY105">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="46:50">
-      <c r="AT106">
+    <row r="106" spans="47:51">
+      <c r="AU106">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU106">
+      <c r="AV106">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV106">
+      <c r="AW106">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW106">
+      <c r="AX106">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX106">
+      <c r="AY106">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="46:50">
-      <c r="AT107">
+    <row r="107" spans="47:51">
+      <c r="AU107">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU107">
+      <c r="AV107">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV107">
+      <c r="AW107">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW107">
+      <c r="AX107">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX107">
+      <c r="AY107">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="46:50">
-      <c r="AT108">
+    <row r="108" spans="47:51">
+      <c r="AU108">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU108">
+      <c r="AV108">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV108">
+      <c r="AW108">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW108">
+      <c r="AX108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX108">
+      <c r="AY108">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="46:50">
-      <c r="AT109">
+    <row r="109" spans="47:51">
+      <c r="AU109">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU109">
+      <c r="AV109">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV109">
+      <c r="AW109">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW109">
+      <c r="AX109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX109">
+      <c r="AY109">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="46:50">
-      <c r="AT110">
+    <row r="110" spans="47:51">
+      <c r="AU110">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU110">
+      <c r="AV110">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV110">
+      <c r="AW110">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW110">
+      <c r="AX110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX110">
+      <c r="AY110">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="46:50">
-      <c r="AT111">
+    <row r="111" spans="47:51">
+      <c r="AU111">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU111">
+      <c r="AV111">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV111">
+      <c r="AW111">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW111">
+      <c r="AX111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX111">
+      <c r="AY111">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="46:50">
-      <c r="AT112">
+    <row r="112" spans="47:51">
+      <c r="AU112">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU112">
+      <c r="AV112">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV112">
+      <c r="AW112">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW112">
+      <c r="AX112">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX112">
+      <c r="AY112">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="46:50">
-      <c r="AT113">
+    <row r="113" spans="47:51">
+      <c r="AU113">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU113">
+      <c r="AV113">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV113">
+      <c r="AW113">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW113">
+      <c r="AX113">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX113">
+      <c r="AY113">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="46:50">
-      <c r="AT114">
+    <row r="114" spans="47:51">
+      <c r="AU114">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU114">
+      <c r="AV114">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV114">
+      <c r="AW114">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW114">
+      <c r="AX114">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX114">
+      <c r="AY114">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="46:50">
-      <c r="AT115">
+    <row r="115" spans="47:51">
+      <c r="AU115">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU115">
+      <c r="AV115">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV115">
+      <c r="AW115">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW115">
+      <c r="AX115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX115">
+      <c r="AY115">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="46:50">
-      <c r="AT116">
+    <row r="116" spans="47:51">
+      <c r="AU116">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU116">
+      <c r="AV116">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV116">
+      <c r="AW116">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW116">
+      <c r="AX116">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX116">
+      <c r="AY116">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="46:50">
-      <c r="AT117">
+    <row r="117" spans="47:51">
+      <c r="AU117">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU117">
+      <c r="AV117">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV117">
+      <c r="AW117">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW117">
+      <c r="AX117">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX117">
+      <c r="AY117">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="46:50">
-      <c r="AT118">
+    <row r="118" spans="47:51">
+      <c r="AU118">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU118">
+      <c r="AV118">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV118">
+      <c r="AW118">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW118">
+      <c r="AX118">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX118">
+      <c r="AY118">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="46:50">
-      <c r="AT119">
+    <row r="119" spans="47:51">
+      <c r="AU119">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU119">
+      <c r="AV119">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV119">
+      <c r="AW119">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW119">
+      <c r="AX119">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX119">
+      <c r="AY119">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="46:50">
-      <c r="AT120">
+    <row r="120" spans="47:51">
+      <c r="AU120">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU120">
+      <c r="AV120">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV120">
+      <c r="AW120">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW120">
+      <c r="AX120">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX120">
+      <c r="AY120">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="46:50">
-      <c r="AT121">
+    <row r="121" spans="47:51">
+      <c r="AU121">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU121">
+      <c r="AV121">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV121">
+      <c r="AW121">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW121">
+      <c r="AX121">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX121">
+      <c r="AY121">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="46:50">
-      <c r="AT122">
+    <row r="122" spans="47:51">
+      <c r="AU122">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU122">
+      <c r="AV122">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV122">
+      <c r="AW122">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW122">
+      <c r="AX122">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX122">
+      <c r="AY122">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="46:50">
-      <c r="AT123">
+    <row r="123" spans="47:51">
+      <c r="AU123">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU123">
+      <c r="AV123">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV123">
+      <c r="AW123">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW123">
+      <c r="AX123">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX123">
+      <c r="AY123">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="46:50">
-      <c r="AT124">
+    <row r="124" spans="47:51">
+      <c r="AU124">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU124">
+      <c r="AV124">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV124">
+      <c r="AW124">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW124">
+      <c r="AX124">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX124">
+      <c r="AY124">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="46:50">
-      <c r="AT125">
+    <row r="125" spans="47:51">
+      <c r="AU125">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU125">
+      <c r="AV125">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV125">
+      <c r="AW125">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW125">
+      <c r="AX125">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX125">
+      <c r="AY125">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="46:50">
-      <c r="AT126">
+    <row r="126" spans="47:51">
+      <c r="AU126">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU126">
+      <c r="AV126">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV126">
+      <c r="AW126">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW126">
+      <c r="AX126">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX126">
+      <c r="AY126">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="46:50">
-      <c r="AT127">
+    <row r="127" spans="47:51">
+      <c r="AU127">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU127">
+      <c r="AV127">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV127">
+      <c r="AW127">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW127">
+      <c r="AX127">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX127">
+      <c r="AY127">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="46:50">
-      <c r="AT128">
+    <row r="128" spans="47:51">
+      <c r="AU128">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU128">
+      <c r="AV128">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV128">
+      <c r="AW128">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW128">
+      <c r="AX128">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX128">
+      <c r="AY128">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="46:50">
-      <c r="AT129">
+    <row r="129" spans="47:51">
+      <c r="AU129">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU129">
+      <c r="AV129">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV129">
+      <c r="AW129">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW129">
+      <c r="AX129">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX129">
+      <c r="AY129">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="46:50">
-      <c r="AT130">
+    <row r="130" spans="47:51">
+      <c r="AU130">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU130">
+      <c r="AV130">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV130">
+      <c r="AW130">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW130">
+      <c r="AX130">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AX130">
+      <c r="AY130">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="46:50">
-      <c r="AT131">
+    <row r="131" spans="47:51">
+      <c r="AU131">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU131">
+      <c r="AV131">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV131">
+      <c r="AW131">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW131">
-        <f t="shared" ref="AW131:AW194" si="27">_xlfn.BITLSHIFT(BIN2DEC(U131),COLUMN($V131)-COLUMN(U131))+AX131</f>
-        <v>0</v>
-      </c>
       <c r="AX131">
+        <f t="shared" ref="AX131:AX194" si="27">_xlfn.BITLSHIFT(BIN2DEC(V131),COLUMN($W131)-COLUMN(V131))+AY131</f>
+        <v>0</v>
+      </c>
+      <c r="AY131">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="46:50">
-      <c r="AT132">
+    <row r="132" spans="47:51">
+      <c r="AU132">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU132">
+      <c r="AV132">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV132">
+      <c r="AW132">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW132">
+      <c r="AX132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX132">
+      <c r="AY132">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="46:50">
-      <c r="AT133">
+    <row r="133" spans="47:51">
+      <c r="AU133">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU133">
+      <c r="AV133">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV133">
+      <c r="AW133">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW133">
+      <c r="AX133">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX133">
+      <c r="AY133">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="46:50">
-      <c r="AT134">
+    <row r="134" spans="47:51">
+      <c r="AU134">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU134">
+      <c r="AV134">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV134">
+      <c r="AW134">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW134">
+      <c r="AX134">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX134">
+      <c r="AY134">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="46:50">
-      <c r="AT135">
+    <row r="135" spans="47:51">
+      <c r="AU135">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU135">
+      <c r="AV135">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV135">
+      <c r="AW135">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW135">
+      <c r="AX135">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX135">
+      <c r="AY135">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="46:50">
-      <c r="AT136">
+    <row r="136" spans="47:51">
+      <c r="AU136">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU136">
+      <c r="AV136">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV136">
+      <c r="AW136">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW136">
+      <c r="AX136">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX136">
+      <c r="AY136">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="46:50">
-      <c r="AT137">
+    <row r="137" spans="47:51">
+      <c r="AU137">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU137">
+      <c r="AV137">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV137">
+      <c r="AW137">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW137">
+      <c r="AX137">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX137">
+      <c r="AY137">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="46:50">
-      <c r="AT138">
+    <row r="138" spans="47:51">
+      <c r="AU138">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU138">
+      <c r="AV138">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV138">
+      <c r="AW138">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW138">
+      <c r="AX138">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX138">
+      <c r="AY138">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="46:50">
-      <c r="AT139">
+    <row r="139" spans="47:51">
+      <c r="AU139">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU139">
+      <c r="AV139">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV139">
+      <c r="AW139">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW139">
+      <c r="AX139">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX139">
+      <c r="AY139">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="46:50">
-      <c r="AT140">
+    <row r="140" spans="47:51">
+      <c r="AU140">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU140">
+      <c r="AV140">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV140">
+      <c r="AW140">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW140">
+      <c r="AX140">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX140">
+      <c r="AY140">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="46:50">
-      <c r="AT141">
+    <row r="141" spans="47:51">
+      <c r="AU141">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU141">
+      <c r="AV141">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV141">
+      <c r="AW141">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW141">
+      <c r="AX141">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX141">
+      <c r="AY141">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="46:50">
-      <c r="AT142">
+    <row r="142" spans="47:51">
+      <c r="AU142">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU142">
+      <c r="AV142">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV142">
+      <c r="AW142">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW142">
+      <c r="AX142">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX142">
+      <c r="AY142">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="46:50">
-      <c r="AT143">
+    <row r="143" spans="47:51">
+      <c r="AU143">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU143">
+      <c r="AV143">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV143">
+      <c r="AW143">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW143">
+      <c r="AX143">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX143">
+      <c r="AY143">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="46:50">
-      <c r="AT144">
+    <row r="144" spans="47:51">
+      <c r="AU144">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU144">
+      <c r="AV144">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV144">
+      <c r="AW144">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW144">
+      <c r="AX144">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX144">
+      <c r="AY144">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="46:50">
-      <c r="AT145">
+    <row r="145" spans="47:51">
+      <c r="AU145">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU145">
+      <c r="AV145">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV145">
+      <c r="AW145">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW145">
+      <c r="AX145">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX145">
+      <c r="AY145">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="46:50">
-      <c r="AT146">
-        <f t="shared" ref="AT146:AT209" si="28">_xlfn.BITLSHIFT(BIN2DEC(R146),COLUMN($V146)-COLUMN(R146))+AU146</f>
-        <v>0</v>
-      </c>
+    <row r="146" spans="47:51">
       <c r="AU146">
-        <f t="shared" ref="AU146:AU209" si="29">_xlfn.BITLSHIFT(BIN2DEC(S146),COLUMN($V146)-COLUMN(S146))+AV146</f>
+        <f t="shared" ref="AU146:AU209" si="28">_xlfn.BITLSHIFT(BIN2DEC(S146),COLUMN($W146)-COLUMN(S146))+AV146</f>
         <v>0</v>
       </c>
       <c r="AV146">
-        <f t="shared" ref="AV146:AV209" si="30">_xlfn.BITLSHIFT(BIN2DEC(T146),COLUMN($V146)-COLUMN(T146))+AW146</f>
+        <f t="shared" ref="AV146:AV209" si="29">_xlfn.BITLSHIFT(BIN2DEC(T146),COLUMN($W146)-COLUMN(T146))+AW146</f>
         <v>0</v>
       </c>
       <c r="AW146">
+        <f t="shared" ref="AW146:AW209" si="30">_xlfn.BITLSHIFT(BIN2DEC(U146),COLUMN($W146)-COLUMN(U146))+AX146</f>
+        <v>0</v>
+      </c>
+      <c r="AX146">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX146">
+      <c r="AY146">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="46:50">
-      <c r="AT147">
+    <row r="147" spans="47:51">
+      <c r="AU147">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU147">
+      <c r="AV147">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV147">
+      <c r="AW147">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW147">
+      <c r="AX147">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX147">
+      <c r="AY147">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="46:50">
-      <c r="AT148">
+    <row r="148" spans="47:51">
+      <c r="AU148">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU148">
+      <c r="AV148">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV148">
+      <c r="AW148">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW148">
+      <c r="AX148">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX148">
+      <c r="AY148">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="46:50">
-      <c r="AT149">
+    <row r="149" spans="47:51">
+      <c r="AU149">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU149">
+      <c r="AV149">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV149">
+      <c r="AW149">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW149">
+      <c r="AX149">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX149">
+      <c r="AY149">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="46:50">
-      <c r="AT150">
+    <row r="150" spans="47:51">
+      <c r="AU150">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU150">
+      <c r="AV150">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV150">
+      <c r="AW150">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW150">
+      <c r="AX150">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX150">
+      <c r="AY150">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="46:50">
-      <c r="AT151">
+    <row r="151" spans="47:51">
+      <c r="AU151">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU151">
+      <c r="AV151">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV151">
+      <c r="AW151">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW151">
+      <c r="AX151">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX151">
+      <c r="AY151">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="46:50">
-      <c r="AT152">
+    <row r="152" spans="47:51">
+      <c r="AU152">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU152">
+      <c r="AV152">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV152">
+      <c r="AW152">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW152">
+      <c r="AX152">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX152">
+      <c r="AY152">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="46:50">
-      <c r="AT153">
+    <row r="153" spans="47:51">
+      <c r="AU153">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU153">
+      <c r="AV153">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV153">
+      <c r="AW153">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW153">
+      <c r="AX153">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX153">
+      <c r="AY153">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="46:50">
-      <c r="AT154">
+    <row r="154" spans="47:51">
+      <c r="AU154">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU154">
+      <c r="AV154">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV154">
+      <c r="AW154">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW154">
+      <c r="AX154">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX154">
+      <c r="AY154">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="46:50">
-      <c r="AT155">
+    <row r="155" spans="47:51">
+      <c r="AU155">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU155">
+      <c r="AV155">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV155">
+      <c r="AW155">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW155">
+      <c r="AX155">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX155">
+      <c r="AY155">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="46:50">
-      <c r="AT156">
+    <row r="156" spans="47:51">
+      <c r="AU156">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU156">
+      <c r="AV156">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV156">
+      <c r="AW156">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW156">
+      <c r="AX156">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX156">
+      <c r="AY156">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="46:50">
-      <c r="AT157">
+    <row r="157" spans="47:51">
+      <c r="AU157">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU157">
+      <c r="AV157">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV157">
+      <c r="AW157">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW157">
+      <c r="AX157">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX157">
+      <c r="AY157">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="46:50">
-      <c r="AT158">
+    <row r="158" spans="47:51">
+      <c r="AU158">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU158">
+      <c r="AV158">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV158">
+      <c r="AW158">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW158">
+      <c r="AX158">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX158">
+      <c r="AY158">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="46:50">
-      <c r="AT159">
+    <row r="159" spans="47:51">
+      <c r="AU159">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU159">
+      <c r="AV159">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV159">
+      <c r="AW159">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW159">
+      <c r="AX159">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX159">
+      <c r="AY159">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="46:50">
-      <c r="AT160">
+    <row r="160" spans="47:51">
+      <c r="AU160">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU160">
+      <c r="AV160">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV160">
+      <c r="AW160">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW160">
+      <c r="AX160">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX160">
+      <c r="AY160">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="46:50">
-      <c r="AT161">
+    <row r="161" spans="47:51">
+      <c r="AU161">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU161">
+      <c r="AV161">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV161">
+      <c r="AW161">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW161">
+      <c r="AX161">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX161">
-        <f t="shared" ref="AX161:AX224" si="31">BIN2DEC(V161)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="46:50">
-      <c r="AT162">
+      <c r="AY161">
+        <f t="shared" ref="AY161:AY224" si="31">BIN2DEC(W161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="47:51">
+      <c r="AU162">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU162">
+      <c r="AV162">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV162">
+      <c r="AW162">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW162">
+      <c r="AX162">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX162">
+      <c r="AY162">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="46:50">
-      <c r="AT163">
+    <row r="163" spans="47:51">
+      <c r="AU163">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU163">
+      <c r="AV163">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV163">
+      <c r="AW163">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW163">
+      <c r="AX163">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX163">
+      <c r="AY163">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="46:50">
-      <c r="AT164">
+    <row r="164" spans="47:51">
+      <c r="AU164">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU164">
+      <c r="AV164">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV164">
+      <c r="AW164">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW164">
+      <c r="AX164">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX164">
+      <c r="AY164">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="46:50">
-      <c r="AT165">
+    <row r="165" spans="47:51">
+      <c r="AU165">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU165">
+      <c r="AV165">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV165">
+      <c r="AW165">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW165">
+      <c r="AX165">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX165">
+      <c r="AY165">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="46:50">
-      <c r="AT166">
+    <row r="166" spans="47:51">
+      <c r="AU166">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU166">
+      <c r="AV166">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV166">
+      <c r="AW166">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW166">
+      <c r="AX166">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX166">
+      <c r="AY166">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="46:50">
-      <c r="AT167">
+    <row r="167" spans="47:51">
+      <c r="AU167">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU167">
+      <c r="AV167">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV167">
+      <c r="AW167">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW167">
+      <c r="AX167">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX167">
+      <c r="AY167">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="46:50">
-      <c r="AT168">
+    <row r="168" spans="47:51">
+      <c r="AU168">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU168">
+      <c r="AV168">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV168">
+      <c r="AW168">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW168">
+      <c r="AX168">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX168">
+      <c r="AY168">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="46:50">
-      <c r="AT169">
+    <row r="169" spans="47:51">
+      <c r="AU169">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU169">
+      <c r="AV169">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV169">
+      <c r="AW169">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW169">
+      <c r="AX169">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX169">
+      <c r="AY169">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="46:50">
-      <c r="AT170">
+    <row r="170" spans="47:51">
+      <c r="AU170">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU170">
+      <c r="AV170">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV170">
+      <c r="AW170">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW170">
+      <c r="AX170">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX170">
+      <c r="AY170">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="46:50">
-      <c r="AT171">
+    <row r="171" spans="47:51">
+      <c r="AU171">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU171">
+      <c r="AV171">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV171">
+      <c r="AW171">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW171">
+      <c r="AX171">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX171">
+      <c r="AY171">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="46:50">
-      <c r="AT172">
+    <row r="172" spans="47:51">
+      <c r="AU172">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU172">
+      <c r="AV172">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV172">
+      <c r="AW172">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW172">
+      <c r="AX172">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX172">
+      <c r="AY172">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="46:50">
-      <c r="AT173">
+    <row r="173" spans="47:51">
+      <c r="AU173">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU173">
+      <c r="AV173">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV173">
+      <c r="AW173">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW173">
+      <c r="AX173">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX173">
+      <c r="AY173">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="46:50">
-      <c r="AT174">
+    <row r="174" spans="47:51">
+      <c r="AU174">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU174">
+      <c r="AV174">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV174">
+      <c r="AW174">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW174">
+      <c r="AX174">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX174">
+      <c r="AY174">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="46:50">
-      <c r="AT175">
+    <row r="175" spans="47:51">
+      <c r="AU175">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU175">
+      <c r="AV175">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV175">
+      <c r="AW175">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW175">
+      <c r="AX175">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX175">
+      <c r="AY175">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="46:50">
-      <c r="AT176">
+    <row r="176" spans="47:51">
+      <c r="AU176">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU176">
+      <c r="AV176">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV176">
+      <c r="AW176">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW176">
+      <c r="AX176">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX176">
+      <c r="AY176">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="46:50">
-      <c r="AT177">
+    <row r="177" spans="47:51">
+      <c r="AU177">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU177">
+      <c r="AV177">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV177">
+      <c r="AW177">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW177">
+      <c r="AX177">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX177">
+      <c r="AY177">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="46:50">
-      <c r="AT178">
+    <row r="178" spans="47:51">
+      <c r="AU178">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU178">
+      <c r="AV178">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV178">
+      <c r="AW178">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW178">
+      <c r="AX178">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX178">
+      <c r="AY178">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="46:50">
-      <c r="AT179">
+    <row r="179" spans="47:51">
+      <c r="AU179">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU179">
+      <c r="AV179">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV179">
+      <c r="AW179">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW179">
+      <c r="AX179">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX179">
+      <c r="AY179">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="46:50">
-      <c r="AT180">
+    <row r="180" spans="47:51">
+      <c r="AU180">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU180">
+      <c r="AV180">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV180">
+      <c r="AW180">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW180">
+      <c r="AX180">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX180">
+      <c r="AY180">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="46:50">
-      <c r="AT181">
+    <row r="181" spans="47:51">
+      <c r="AU181">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU181">
+      <c r="AV181">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV181">
+      <c r="AW181">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW181">
+      <c r="AX181">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX181">
+      <c r="AY181">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="46:50">
-      <c r="AT182">
+    <row r="182" spans="47:51">
+      <c r="AU182">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU182">
+      <c r="AV182">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV182">
+      <c r="AW182">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW182">
+      <c r="AX182">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX182">
+      <c r="AY182">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="46:50">
-      <c r="AT183">
+    <row r="183" spans="47:51">
+      <c r="AU183">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU183">
+      <c r="AV183">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV183">
+      <c r="AW183">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW183">
+      <c r="AX183">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX183">
+      <c r="AY183">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="46:50">
-      <c r="AT184">
+    <row r="184" spans="47:51">
+      <c r="AU184">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU184">
+      <c r="AV184">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV184">
+      <c r="AW184">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW184">
+      <c r="AX184">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX184">
+      <c r="AY184">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="46:50">
-      <c r="AT185">
+    <row r="185" spans="47:51">
+      <c r="AU185">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU185">
+      <c r="AV185">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV185">
+      <c r="AW185">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW185">
+      <c r="AX185">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX185">
+      <c r="AY185">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="46:50">
-      <c r="AT186">
+    <row r="186" spans="47:51">
+      <c r="AU186">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU186">
+      <c r="AV186">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV186">
+      <c r="AW186">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW186">
+      <c r="AX186">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX186">
+      <c r="AY186">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="46:50">
-      <c r="AT187">
+    <row r="187" spans="47:51">
+      <c r="AU187">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU187">
+      <c r="AV187">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV187">
+      <c r="AW187">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW187">
+      <c r="AX187">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX187">
+      <c r="AY187">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="46:50">
-      <c r="AT188">
+    <row r="188" spans="47:51">
+      <c r="AU188">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU188">
+      <c r="AV188">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV188">
+      <c r="AW188">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW188">
+      <c r="AX188">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX188">
+      <c r="AY188">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="46:50">
-      <c r="AT189">
+    <row r="189" spans="47:51">
+      <c r="AU189">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU189">
+      <c r="AV189">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV189">
+      <c r="AW189">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW189">
+      <c r="AX189">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX189">
+      <c r="AY189">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="46:50">
-      <c r="AT190">
+    <row r="190" spans="47:51">
+      <c r="AU190">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU190">
+      <c r="AV190">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV190">
+      <c r="AW190">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW190">
+      <c r="AX190">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX190">
+      <c r="AY190">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="46:50">
-      <c r="AT191">
+    <row r="191" spans="47:51">
+      <c r="AU191">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU191">
+      <c r="AV191">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV191">
+      <c r="AW191">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW191">
+      <c r="AX191">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX191">
+      <c r="AY191">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="46:50">
-      <c r="AT192">
+    <row r="192" spans="47:51">
+      <c r="AU192">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU192">
+      <c r="AV192">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV192">
+      <c r="AW192">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW192">
+      <c r="AX192">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX192">
+      <c r="AY192">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="46:50">
-      <c r="AT193">
+    <row r="193" spans="47:51">
+      <c r="AU193">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU193">
+      <c r="AV193">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV193">
+      <c r="AW193">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW193">
+      <c r="AX193">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX193">
+      <c r="AY193">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="46:50">
-      <c r="AT194">
+    <row r="194" spans="47:51">
+      <c r="AU194">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU194">
+      <c r="AV194">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV194">
+      <c r="AW194">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW194">
+      <c r="AX194">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX194">
+      <c r="AY194">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="46:50">
-      <c r="AT195">
+    <row r="195" spans="47:51">
+      <c r="AU195">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU195">
+      <c r="AV195">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV195">
+      <c r="AW195">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW195">
-        <f t="shared" ref="AW195:AW250" si="32">_xlfn.BITLSHIFT(BIN2DEC(U195),COLUMN($V195)-COLUMN(U195))+AX195</f>
-        <v>0</v>
-      </c>
       <c r="AX195">
+        <f t="shared" ref="AX195:AX250" si="32">_xlfn.BITLSHIFT(BIN2DEC(V195),COLUMN($W195)-COLUMN(V195))+AY195</f>
+        <v>0</v>
+      </c>
+      <c r="AY195">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="46:50">
-      <c r="AT196">
+    <row r="196" spans="47:51">
+      <c r="AU196">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU196">
+      <c r="AV196">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV196">
+      <c r="AW196">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW196">
+      <c r="AX196">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX196">
+      <c r="AY196">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="46:50">
-      <c r="AT197">
+    <row r="197" spans="47:51">
+      <c r="AU197">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU197">
+      <c r="AV197">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV197">
+      <c r="AW197">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW197">
+      <c r="AX197">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX197">
+      <c r="AY197">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="46:50">
-      <c r="AT198">
+    <row r="198" spans="47:51">
+      <c r="AU198">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU198">
+      <c r="AV198">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV198">
+      <c r="AW198">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW198">
+      <c r="AX198">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX198">
+      <c r="AY198">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="46:50">
-      <c r="AT199">
+    <row r="199" spans="47:51">
+      <c r="AU199">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU199">
+      <c r="AV199">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV199">
+      <c r="AW199">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW199">
+      <c r="AX199">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX199">
+      <c r="AY199">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="46:50">
-      <c r="AT200">
+    <row r="200" spans="47:51">
+      <c r="AU200">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU200">
+      <c r="AV200">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV200">
+      <c r="AW200">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW200">
+      <c r="AX200">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX200">
+      <c r="AY200">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="46:50">
-      <c r="AT201">
+    <row r="201" spans="47:51">
+      <c r="AU201">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU201">
+      <c r="AV201">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV201">
+      <c r="AW201">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW201">
+      <c r="AX201">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX201">
+      <c r="AY201">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="46:50">
-      <c r="AT202">
+    <row r="202" spans="47:51">
+      <c r="AU202">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU202">
+      <c r="AV202">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV202">
+      <c r="AW202">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW202">
+      <c r="AX202">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX202">
+      <c r="AY202">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="46:50">
-      <c r="AT203">
+    <row r="203" spans="47:51">
+      <c r="AU203">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU203">
+      <c r="AV203">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV203">
+      <c r="AW203">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW203">
+      <c r="AX203">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX203">
+      <c r="AY203">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="46:50">
-      <c r="AT204">
+    <row r="204" spans="47:51">
+      <c r="AU204">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU204">
+      <c r="AV204">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV204">
+      <c r="AW204">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW204">
+      <c r="AX204">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX204">
+      <c r="AY204">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="46:50">
-      <c r="AT205">
+    <row r="205" spans="47:51">
+      <c r="AU205">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU205">
+      <c r="AV205">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV205">
+      <c r="AW205">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW205">
+      <c r="AX205">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX205">
+      <c r="AY205">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="46:50">
-      <c r="AT206">
+    <row r="206" spans="47:51">
+      <c r="AU206">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU206">
+      <c r="AV206">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV206">
+      <c r="AW206">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW206">
+      <c r="AX206">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX206">
+      <c r="AY206">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="46:50">
-      <c r="AT207">
+    <row r="207" spans="47:51">
+      <c r="AU207">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU207">
+      <c r="AV207">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV207">
+      <c r="AW207">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW207">
+      <c r="AX207">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX207">
+      <c r="AY207">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="46:50">
-      <c r="AT208">
+    <row r="208" spans="47:51">
+      <c r="AU208">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU208">
+      <c r="AV208">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV208">
+      <c r="AW208">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW208">
+      <c r="AX208">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX208">
+      <c r="AY208">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="46:50">
-      <c r="AT209">
+    <row r="209" spans="47:51">
+      <c r="AU209">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AU209">
+      <c r="AV209">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AV209">
+      <c r="AW209">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW209">
+      <c r="AX209">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX209">
+      <c r="AY209">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="46:50">
-      <c r="AT210">
-        <f t="shared" ref="AT210:AT250" si="33">_xlfn.BITLSHIFT(BIN2DEC(R210),COLUMN($V210)-COLUMN(R210))+AU210</f>
-        <v>0</v>
-      </c>
+    <row r="210" spans="47:51">
       <c r="AU210">
-        <f t="shared" ref="AU210:AU250" si="34">_xlfn.BITLSHIFT(BIN2DEC(S210),COLUMN($V210)-COLUMN(S210))+AV210</f>
+        <f t="shared" ref="AU210:AU250" si="33">_xlfn.BITLSHIFT(BIN2DEC(S210),COLUMN($W210)-COLUMN(S210))+AV210</f>
         <v>0</v>
       </c>
       <c r="AV210">
-        <f t="shared" ref="AV210:AV250" si="35">_xlfn.BITLSHIFT(BIN2DEC(T210),COLUMN($V210)-COLUMN(T210))+AW210</f>
+        <f t="shared" ref="AV210:AV250" si="34">_xlfn.BITLSHIFT(BIN2DEC(T210),COLUMN($W210)-COLUMN(T210))+AW210</f>
         <v>0</v>
       </c>
       <c r="AW210">
+        <f t="shared" ref="AW210:AW250" si="35">_xlfn.BITLSHIFT(BIN2DEC(U210),COLUMN($W210)-COLUMN(U210))+AX210</f>
+        <v>0</v>
+      </c>
+      <c r="AX210">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX210">
+      <c r="AY210">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="46:50">
-      <c r="AT211">
+    <row r="211" spans="47:51">
+      <c r="AU211">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU211">
+      <c r="AV211">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV211">
+      <c r="AW211">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW211">
+      <c r="AX211">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX211">
+      <c r="AY211">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="46:50">
-      <c r="AT212">
+    <row r="212" spans="47:51">
+      <c r="AU212">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU212">
+      <c r="AV212">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV212">
+      <c r="AW212">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW212">
+      <c r="AX212">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX212">
+      <c r="AY212">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="46:50">
-      <c r="AT213">
+    <row r="213" spans="47:51">
+      <c r="AU213">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU213">
+      <c r="AV213">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV213">
+      <c r="AW213">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW213">
+      <c r="AX213">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX213">
+      <c r="AY213">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="46:50">
-      <c r="AT214">
+    <row r="214" spans="47:51">
+      <c r="AU214">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU214">
+      <c r="AV214">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV214">
+      <c r="AW214">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW214">
+      <c r="AX214">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX214">
+      <c r="AY214">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="46:50">
-      <c r="AT215">
+    <row r="215" spans="47:51">
+      <c r="AU215">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU215">
+      <c r="AV215">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV215">
+      <c r="AW215">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW215">
+      <c r="AX215">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX215">
+      <c r="AY215">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="46:50">
-      <c r="AT216">
+    <row r="216" spans="47:51">
+      <c r="AU216">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU216">
+      <c r="AV216">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV216">
+      <c r="AW216">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW216">
+      <c r="AX216">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX216">
+      <c r="AY216">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="46:50">
-      <c r="AT217">
+    <row r="217" spans="47:51">
+      <c r="AU217">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU217">
+      <c r="AV217">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV217">
+      <c r="AW217">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW217">
+      <c r="AX217">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX217">
+      <c r="AY217">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="46:50">
-      <c r="AT218">
+    <row r="218" spans="47:51">
+      <c r="AU218">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU218">
+      <c r="AV218">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV218">
+      <c r="AW218">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW218">
+      <c r="AX218">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX218">
+      <c r="AY218">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="46:50">
-      <c r="AT219">
+    <row r="219" spans="47:51">
+      <c r="AU219">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU219">
+      <c r="AV219">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV219">
+      <c r="AW219">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW219">
+      <c r="AX219">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX219">
+      <c r="AY219">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="46:50">
-      <c r="AT220">
+    <row r="220" spans="47:51">
+      <c r="AU220">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU220">
+      <c r="AV220">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV220">
+      <c r="AW220">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW220">
+      <c r="AX220">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX220">
+      <c r="AY220">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="46:50">
-      <c r="AT221">
+    <row r="221" spans="47:51">
+      <c r="AU221">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU221">
+      <c r="AV221">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV221">
+      <c r="AW221">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW221">
+      <c r="AX221">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX221">
+      <c r="AY221">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="46:50">
-      <c r="AT222">
+    <row r="222" spans="47:51">
+      <c r="AU222">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU222">
+      <c r="AV222">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV222">
+      <c r="AW222">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW222">
+      <c r="AX222">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX222">
+      <c r="AY222">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="46:50">
-      <c r="AT223">
+    <row r="223" spans="47:51">
+      <c r="AU223">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU223">
+      <c r="AV223">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV223">
+      <c r="AW223">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW223">
+      <c r="AX223">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX223">
+      <c r="AY223">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="46:50">
-      <c r="AT224">
+    <row r="224" spans="47:51">
+      <c r="AU224">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU224">
+      <c r="AV224">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV224">
+      <c r="AW224">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW224">
+      <c r="AX224">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX224">
+      <c r="AY224">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="46:50">
-      <c r="AT225">
+    <row r="225" spans="47:51">
+      <c r="AU225">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU225">
+      <c r="AV225">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV225">
+      <c r="AW225">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW225">
+      <c r="AX225">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX225">
-        <f t="shared" ref="AX225:AX250" si="36">BIN2DEC(V225)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="46:50">
-      <c r="AT226">
+      <c r="AY225">
+        <f t="shared" ref="AY225:AY250" si="36">BIN2DEC(W225)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="47:51">
+      <c r="AU226">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU226">
+      <c r="AV226">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV226">
+      <c r="AW226">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW226">
+      <c r="AX226">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX226">
+      <c r="AY226">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="46:50">
-      <c r="AT227">
+    <row r="227" spans="47:51">
+      <c r="AU227">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU227">
+      <c r="AV227">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV227">
+      <c r="AW227">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW227">
+      <c r="AX227">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX227">
+      <c r="AY227">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="46:50">
-      <c r="AT228">
+    <row r="228" spans="47:51">
+      <c r="AU228">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU228">
+      <c r="AV228">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV228">
+      <c r="AW228">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW228">
+      <c r="AX228">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX228">
+      <c r="AY228">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="46:50">
-      <c r="AT229">
+    <row r="229" spans="47:51">
+      <c r="AU229">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU229">
+      <c r="AV229">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV229">
+      <c r="AW229">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW229">
+      <c r="AX229">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX229">
+      <c r="AY229">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="46:50">
-      <c r="AT230">
+    <row r="230" spans="47:51">
+      <c r="AU230">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU230">
+      <c r="AV230">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV230">
+      <c r="AW230">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW230">
+      <c r="AX230">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX230">
+      <c r="AY230">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="46:50">
-      <c r="AT231">
+    <row r="231" spans="47:51">
+      <c r="AU231">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU231">
+      <c r="AV231">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV231">
+      <c r="AW231">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW231">
+      <c r="AX231">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX231">
+      <c r="AY231">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="46:50">
-      <c r="AT232">
+    <row r="232" spans="47:51">
+      <c r="AU232">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU232">
+      <c r="AV232">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV232">
+      <c r="AW232">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW232">
+      <c r="AX232">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX232">
+      <c r="AY232">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="46:50">
-      <c r="AT233">
+    <row r="233" spans="47:51">
+      <c r="AU233">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU233">
+      <c r="AV233">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV233">
+      <c r="AW233">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW233">
+      <c r="AX233">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX233">
+      <c r="AY233">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="46:50">
-      <c r="AT234">
+    <row r="234" spans="47:51">
+      <c r="AU234">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU234">
+      <c r="AV234">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV234">
+      <c r="AW234">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW234">
+      <c r="AX234">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX234">
+      <c r="AY234">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="46:50">
-      <c r="AT235">
+    <row r="235" spans="47:51">
+      <c r="AU235">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU235">
+      <c r="AV235">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV235">
+      <c r="AW235">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW235">
+      <c r="AX235">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX235">
+      <c r="AY235">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="46:50">
-      <c r="AT236">
+    <row r="236" spans="47:51">
+      <c r="AU236">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU236">
+      <c r="AV236">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV236">
+      <c r="AW236">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW236">
+      <c r="AX236">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX236">
+      <c r="AY236">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="46:50">
-      <c r="AT237">
+    <row r="237" spans="47:51">
+      <c r="AU237">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU237">
+      <c r="AV237">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV237">
+      <c r="AW237">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW237">
+      <c r="AX237">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX237">
+      <c r="AY237">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="46:50">
-      <c r="AT238">
+    <row r="238" spans="47:51">
+      <c r="AU238">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU238">
+      <c r="AV238">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV238">
+      <c r="AW238">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW238">
+      <c r="AX238">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX238">
+      <c r="AY238">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="46:50">
-      <c r="AT239">
+    <row r="239" spans="47:51">
+      <c r="AU239">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU239">
+      <c r="AV239">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV239">
+      <c r="AW239">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW239">
+      <c r="AX239">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX239">
+      <c r="AY239">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="46:50">
-      <c r="AT240">
+    <row r="240" spans="47:51">
+      <c r="AU240">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU240">
+      <c r="AV240">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV240">
+      <c r="AW240">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW240">
+      <c r="AX240">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX240">
+      <c r="AY240">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="46:50">
-      <c r="AT241">
+    <row r="241" spans="47:51">
+      <c r="AU241">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU241">
+      <c r="AV241">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV241">
+      <c r="AW241">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW241">
+      <c r="AX241">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX241">
+      <c r="AY241">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="46:50">
-      <c r="AT242">
+    <row r="242" spans="47:51">
+      <c r="AU242">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU242">
+      <c r="AV242">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV242">
+      <c r="AW242">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW242">
+      <c r="AX242">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX242">
+      <c r="AY242">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="46:50">
-      <c r="AT243">
+    <row r="243" spans="47:51">
+      <c r="AU243">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU243">
+      <c r="AV243">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV243">
+      <c r="AW243">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW243">
+      <c r="AX243">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX243">
+      <c r="AY243">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="46:50">
-      <c r="AT244">
+    <row r="244" spans="47:51">
+      <c r="AU244">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU244">
+      <c r="AV244">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV244">
+      <c r="AW244">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW244">
+      <c r="AX244">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX244">
+      <c r="AY244">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="46:50">
-      <c r="AT245">
+    <row r="245" spans="47:51">
+      <c r="AU245">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU245">
+      <c r="AV245">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV245">
+      <c r="AW245">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW245">
+      <c r="AX245">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX245">
+      <c r="AY245">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="46:50">
-      <c r="AT246">
+    <row r="246" spans="47:51">
+      <c r="AU246">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU246">
+      <c r="AV246">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV246">
+      <c r="AW246">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW246">
+      <c r="AX246">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX246">
+      <c r="AY246">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="46:50">
-      <c r="AT247">
+    <row r="247" spans="47:51">
+      <c r="AU247">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU247">
+      <c r="AV247">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV247">
+      <c r="AW247">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW247">
+      <c r="AX247">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX247">
+      <c r="AY247">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="46:50">
-      <c r="AT248">
+    <row r="248" spans="47:51">
+      <c r="AU248">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU248">
+      <c r="AV248">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV248">
+      <c r="AW248">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW248">
+      <c r="AX248">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX248">
+      <c r="AY248">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="46:50">
-      <c r="AT249">
+    <row r="249" spans="47:51">
+      <c r="AU249">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU249">
+      <c r="AV249">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV249">
+      <c r="AW249">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW249">
+      <c r="AX249">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX249">
+      <c r="AY249">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="46:50">
-      <c r="AT250">
+    <row r="250" spans="47:51">
+      <c r="AU250">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AU250">
+      <c r="AV250">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AV250">
+      <c r="AW250">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW250">
+      <c r="AX250">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AX250">
+      <c r="AY250">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F19:V21 F12:V13 F9:V10 F37:V38 F41:V48 F35:V35 F25:V33 F15:V17 F2:V5">
+  <conditionalFormatting sqref="G19:W21 G12:W13 G9:W10 G37:W38 G41:W48 G35:W35 G25:W33 G15:W17 G2:W5">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -9483,7 +9564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:V23 F6:V10 X27:X32 X11:X16 X18:X23 X3:X8">
+  <conditionalFormatting sqref="G23:W23 G6:W10 Y27:Y32 Y11:Y16 Y18:Y23 Y3:Y8">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
